--- a/2 NFL 2019 SQL Demonstration Project with Web Scraping/output.xlsx
+++ b/2 NFL 2019 SQL Demonstration Project with Web Scraping/output.xlsx
@@ -16,15 +16,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="328">
   <si>
+    <t>Team</t>
+  </si>
+  <si>
     <t>Pos</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Team</t>
-  </si>
-  <si>
     <t>Number</t>
   </si>
   <si>
@@ -64,6 +64,9 @@
     <t>College</t>
   </si>
   <si>
+    <t>NE</t>
+  </si>
+  <si>
     <t>QB</t>
   </si>
   <si>
@@ -199,51 +202,51 @@
     <t>Danny Shelton</t>
   </si>
   <si>
+    <t>Ufomba Kamalu</t>
+  </si>
+  <si>
     <t>David Parry</t>
   </si>
   <si>
-    <t>Ufomba Kamalu</t>
-  </si>
-  <si>
     <t>Byron Cowart</t>
   </si>
   <si>
+    <t>Kyle Van</t>
+  </si>
+  <si>
     <t>Dont'a Hightower</t>
   </si>
   <si>
     <t>Elandon Roberts</t>
   </si>
   <si>
-    <t>Kyle Van</t>
+    <t>Jamie Collins</t>
+  </si>
+  <si>
+    <t>Ja'whaun Bentley</t>
   </si>
   <si>
     <t>Christian Sam</t>
   </si>
   <si>
-    <t>Jamie Collins</t>
-  </si>
-  <si>
-    <t>Ja'whaun Bentley</t>
-  </si>
-  <si>
     <t>Brandon King</t>
   </si>
   <si>
     <t>Terez Hall</t>
   </si>
   <si>
+    <t>Phillip Dorsett</t>
+  </si>
+  <si>
     <t>N'Keal Harry</t>
   </si>
   <si>
-    <t>Phillip Dorsett</t>
+    <t>Josh Gordon</t>
   </si>
   <si>
     <t>Maurice Harris</t>
   </si>
   <si>
-    <t>Josh Gordon</t>
-  </si>
-  <si>
     <t>Dontrelle Inman</t>
   </si>
   <si>
@@ -277,42 +280,42 @@
     <t>Cedrick Lang</t>
   </si>
   <si>
+    <t>Michael Bennett</t>
+  </si>
+  <si>
     <t>Deatrich Wise</t>
   </si>
   <si>
-    <t>Michael Bennett</t>
+    <t>John Simon</t>
   </si>
   <si>
     <t>Keionta Davis</t>
   </si>
   <si>
-    <t>John Simon</t>
-  </si>
-  <si>
     <t>Derek Rivers</t>
   </si>
   <si>
     <t>Nick Thurman</t>
   </si>
   <si>
+    <t>Chase Winovich</t>
+  </si>
+  <si>
     <t>Shilique Calhoun</t>
   </si>
   <si>
-    <t>Chase Winovich</t>
-  </si>
-  <si>
     <t>Jason McCourty</t>
   </si>
   <si>
     <t>Stephon Gilmore</t>
   </si>
   <si>
+    <t>Jonathan Jones</t>
+  </si>
+  <si>
     <t>J.C. Jackson</t>
   </si>
   <si>
-    <t>Jonathan Jones</t>
-  </si>
-  <si>
     <t>Obi Melifonwu</t>
   </si>
   <si>
@@ -322,12 +325,12 @@
     <t>Ken Webster</t>
   </si>
   <si>
+    <t>D'Angelo Ross</t>
+  </si>
+  <si>
     <t>Joejuan Williams</t>
   </si>
   <si>
-    <t>D'Angelo Ross</t>
-  </si>
-  <si>
     <t>Joe Thuney</t>
   </si>
   <si>
@@ -340,18 +343,15 @@
     <t>Hjalte Froholdt</t>
   </si>
   <si>
+    <t>Martez Ivey</t>
+  </si>
+  <si>
     <t>Brian Schwenke</t>
   </si>
   <si>
-    <t>Martez Ivey</t>
-  </si>
-  <si>
     <t>Stephen Gostkowski</t>
   </si>
   <si>
-    <t>NE</t>
-  </si>
-  <si>
     <t>#1 QB</t>
   </si>
   <si>
@@ -439,51 +439,51 @@
     <t>#27 DT</t>
   </si>
   <si>
+    <t>#195 DT</t>
+  </si>
+  <si>
     <t>#110 DT</t>
   </si>
   <si>
-    <t>#195 DT</t>
-  </si>
-  <si>
     <t>#69 DT</t>
   </si>
   <si>
+    <t>#2 LB</t>
+  </si>
+  <si>
     <t>#1 LB</t>
   </si>
   <si>
     <t>#8 LB</t>
   </si>
   <si>
-    <t>#2 LB</t>
+    <t>#3 LB</t>
+  </si>
+  <si>
+    <t>#10 LB</t>
   </si>
   <si>
     <t>#24 LB</t>
   </si>
   <si>
-    <t>#3 LB</t>
-  </si>
-  <si>
-    <t>#10 LB</t>
-  </si>
-  <si>
     <t>#25 LB</t>
   </si>
   <si>
     <t>#16 LB</t>
   </si>
   <si>
+    <t>#67 WR</t>
+  </si>
+  <si>
     <t>#233 WR</t>
   </si>
   <si>
-    <t>#67 WR</t>
+    <t>#28 WR</t>
   </si>
   <si>
     <t>#360 WR</t>
   </si>
   <si>
-    <t>#28 WR</t>
-  </si>
-  <si>
     <t>#93 WR</t>
   </si>
   <si>
@@ -517,42 +517,42 @@
     <t>#126 TE</t>
   </si>
   <si>
+    <t>#16 DE</t>
+  </si>
+  <si>
     <t>#110 DE</t>
   </si>
   <si>
-    <t>#16 DE</t>
+    <t>#73 DE</t>
   </si>
   <si>
     <t>#154 DE</t>
   </si>
   <si>
-    <t>#73 DE</t>
-  </si>
-  <si>
     <t>#124 DE</t>
   </si>
   <si>
     <t>#187 DE</t>
   </si>
   <si>
+    <t>#109 DE</t>
+  </si>
+  <si>
     <t>#153 DE</t>
   </si>
   <si>
-    <t>#109 DE</t>
-  </si>
-  <si>
     <t>#12 CB</t>
   </si>
   <si>
     <t>#5 CB</t>
   </si>
   <si>
+    <t>#79 CB</t>
+  </si>
+  <si>
     <t>#63 CB</t>
   </si>
   <si>
-    <t>#79 CB</t>
-  </si>
-  <si>
     <t>#47 CB</t>
   </si>
   <si>
@@ -562,12 +562,12 @@
     <t>#117 CB</t>
   </si>
   <si>
+    <t>#145 CB</t>
+  </si>
+  <si>
     <t>#133 CB</t>
   </si>
   <si>
-    <t>#145 CB</t>
-  </si>
-  <si>
     <t>#12 G</t>
   </si>
   <si>
@@ -706,51 +706,51 @@
     <t>8/20/93</t>
   </si>
   <si>
+    <t>11/2/92</t>
+  </si>
+  <si>
     <t>3/7/92</t>
   </si>
   <si>
-    <t>11/2/92</t>
-  </si>
-  <si>
     <t>5/20/96</t>
   </si>
   <si>
+    <t>6/19/90</t>
+  </si>
+  <si>
     <t>3/12/90</t>
   </si>
   <si>
     <t>4/22/94</t>
   </si>
   <si>
-    <t>6/19/90</t>
+    <t>5/2/90</t>
+  </si>
+  <si>
+    <t>8/24/96</t>
   </si>
   <si>
     <t>6/7/96</t>
   </si>
   <si>
-    <t>5/2/90</t>
-  </si>
-  <si>
-    <t>8/24/96</t>
-  </si>
-  <si>
     <t>6/8/93</t>
   </si>
   <si>
     <t>11/18/96</t>
   </si>
   <si>
+    <t>12/3/92</t>
+  </si>
+  <si>
     <t>12/17/97</t>
   </si>
   <si>
-    <t>12/3/92</t>
+    <t>4/13/91</t>
   </si>
   <si>
     <t>11/11/92</t>
   </si>
   <si>
-    <t>4/13/91</t>
-  </si>
-  <si>
     <t>1/31/89</t>
   </si>
   <si>
@@ -784,39 +784,39 @@
     <t>5/12/92</t>
   </si>
   <si>
+    <t>11/13/85</t>
+  </si>
+  <si>
     <t>7/26/94</t>
   </si>
   <si>
-    <t>11/13/85</t>
+    <t>10/14/90</t>
   </si>
   <si>
     <t>3/1/94</t>
   </si>
   <si>
-    <t>10/14/90</t>
-  </si>
-  <si>
     <t>5/9/95</t>
   </si>
   <si>
     <t>6/12/95</t>
   </si>
   <si>
+    <t>4/19/95</t>
+  </si>
+  <si>
     <t>3/20/92</t>
   </si>
   <si>
-    <t>4/19/95</t>
-  </si>
-  <si>
     <t>9/19/90</t>
   </si>
   <si>
+    <t>9/20/93</t>
+  </si>
+  <si>
     <t>11/17/95</t>
   </si>
   <si>
-    <t>9/20/93</t>
-  </si>
-  <si>
     <t>4/5/94</t>
   </si>
   <si>
@@ -826,12 +826,12 @@
     <t>6/19/96</t>
   </si>
   <si>
+    <t>10/29/96</t>
+  </si>
+  <si>
     <t>12/6/97</t>
   </si>
   <si>
-    <t>10/29/96</t>
-  </si>
-  <si>
     <t>11/30/92</t>
   </si>
   <si>
@@ -844,12 +844,12 @@
     <t>8/20/96</t>
   </si>
   <si>
+    <t>7/25/95</t>
+  </si>
+  <si>
     <t>3/22/91</t>
   </si>
   <si>
-    <t>7/25/95</t>
-  </si>
-  <si>
     <t>1/28/84</t>
   </si>
   <si>
@@ -931,24 +931,24 @@
     <t>Maryland</t>
   </si>
   <si>
+    <t>BYU</t>
+  </si>
+  <si>
     <t>Houston</t>
   </si>
   <si>
-    <t>BYU</t>
-  </si>
-  <si>
     <t>Southern Mississipi</t>
   </si>
   <si>
     <t>Missouri</t>
   </si>
   <si>
+    <t>Baylor</t>
+  </si>
+  <si>
     <t>California</t>
   </si>
   <si>
-    <t>Baylor</t>
-  </si>
-  <si>
     <t>Virginia</t>
   </si>
   <si>
@@ -970,10 +970,10 @@
     <t>UTEP</t>
   </si>
   <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
     <t>Arkansas</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M</t>
   </si>
   <si>
     <t>Tennessee-Chattanooga</t>
@@ -1419,10 +1419,10 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>12</v>
@@ -1472,10 +1472,10 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1519,13 +1519,13 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="E4">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="F4">
         <v>77</v>
@@ -1543,7 +1543,7 @@
         <v>218</v>
       </c>
       <c r="K4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L4" t="s">
         <v>203</v>
@@ -1569,13 +1569,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <v>26</v>
@@ -1622,13 +1622,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <v>28</v>
@@ -1675,13 +1675,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>34</v>
@@ -1728,16 +1728,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="E8">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F8">
         <v>75</v>
@@ -1781,13 +1781,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="E9">
         <v>46</v>
@@ -1828,13 +1828,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>38</v>
@@ -1875,16 +1875,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="E11">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="F11">
         <v>75</v>
@@ -1922,13 +1922,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="E12">
         <v>76</v>
@@ -1975,13 +1975,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="E13">
         <v>61</v>
@@ -2028,16 +2028,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="E14">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F14">
         <v>70</v>
@@ -2072,13 +2072,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="E15">
         <v>23</v>
@@ -2125,13 +2125,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="E16">
         <v>21</v>
@@ -2178,13 +2178,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="E17">
         <v>25</v>
@@ -2231,13 +2231,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="E18">
         <v>6</v>
@@ -2278,16 +2278,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="E19">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="F19">
         <v>71</v>
@@ -2331,13 +2331,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="E20">
         <v>32</v>
@@ -2384,13 +2384,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="E21">
         <v>43</v>
@@ -2437,13 +2437,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="E22">
         <v>29</v>
@@ -2490,16 +2490,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="E23">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="F23">
         <v>74</v>
@@ -2534,13 +2534,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="E24">
         <v>49</v>
@@ -2584,13 +2584,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="E25">
         <v>60</v>
@@ -2631,13 +2631,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="E26">
         <v>67</v>
@@ -2675,13 +2675,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="E27">
         <v>93</v>
@@ -2728,13 +2728,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="E28">
         <v>98</v>
@@ -2775,13 +2775,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="E29">
         <v>70</v>
@@ -2822,13 +2822,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="E30">
         <v>71</v>
@@ -2875,19 +2875,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="E31">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="F31">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G31" t="s">
         <v>141</v>
@@ -2896,31 +2896,25 @@
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J31">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="K31">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L31" t="s">
         <v>230</v>
       </c>
       <c r="M31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N31">
-        <v>2015</v>
-      </c>
-      <c r="O31">
-        <v>5</v>
-      </c>
-      <c r="P31">
-        <v>151</v>
+        <v>2016</v>
       </c>
       <c r="Q31" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2928,19 +2922,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="E32">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="F32">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G32" t="s">
         <v>142</v>
@@ -2949,25 +2943,31 @@
         <v>3</v>
       </c>
       <c r="I32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J32">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="K32">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L32" t="s">
         <v>231</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N32">
-        <v>2016</v>
+        <v>2015</v>
+      </c>
+      <c r="O32">
+        <v>5</v>
+      </c>
+      <c r="P32">
+        <v>151</v>
       </c>
       <c r="Q32" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2975,16 +2975,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="E33">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="F33">
         <v>74</v>
@@ -3025,19 +3025,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="E34">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F34">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s">
         <v>144</v>
@@ -3046,10 +3046,10 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="J34">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="K34">
         <v>29</v>
@@ -3058,19 +3058,19 @@
         <v>233</v>
       </c>
       <c r="M34">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N34">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P34">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="Q34" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -3078,19 +3078,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="E35">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F35">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G35" t="s">
         <v>145</v>
@@ -3099,31 +3099,31 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="J35">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="K35">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L35" t="s">
         <v>234</v>
       </c>
       <c r="M35">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N35">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="O35">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P35">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="Q35" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -3131,19 +3131,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="E36">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F36">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G36" t="s">
         <v>146</v>
@@ -3152,28 +3152,28 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J36">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="K36">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L36" t="s">
         <v>235</v>
       </c>
       <c r="M36">
+        <v>4</v>
+      </c>
+      <c r="N36">
+        <v>2016</v>
+      </c>
+      <c r="O36">
         <v>6</v>
       </c>
-      <c r="N36">
-        <v>2014</v>
-      </c>
-      <c r="O36">
-        <v>2</v>
-      </c>
       <c r="P36">
-        <v>40</v>
+        <v>214</v>
       </c>
       <c r="Q36" t="s">
         <v>306</v>
@@ -3184,19 +3184,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="E37">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="F37">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s">
         <v>147</v>
@@ -3205,28 +3205,31 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J37">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="K37">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L37" t="s">
         <v>236</v>
       </c>
       <c r="M37">
+        <v>7</v>
+      </c>
+      <c r="N37">
+        <v>2013</v>
+      </c>
+      <c r="O37">
         <v>2</v>
       </c>
-      <c r="N37">
-        <v>2018</v>
-      </c>
-      <c r="O37">
-        <v>6</v>
-      </c>
       <c r="P37">
-        <v>178</v>
+        <v>52</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -3234,19 +3237,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="E38">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="F38">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G38" t="s">
         <v>148</v>
@@ -3255,31 +3258,28 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J38">
         <v>250</v>
       </c>
       <c r="K38">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L38" t="s">
         <v>237</v>
       </c>
       <c r="M38">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N38">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="O38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P38">
-        <v>52</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>307</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -3287,19 +3287,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="E39">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F39">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G39" t="s">
         <v>149</v>
@@ -3308,13 +3308,13 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="J39">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="K39">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L39" t="s">
         <v>238</v>
@@ -3326,10 +3326,10 @@
         <v>2018</v>
       </c>
       <c r="O39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P39">
-        <v>143</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -3337,13 +3337,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="E40">
         <v>36</v>
@@ -3384,16 +3384,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F41">
         <v>72</v>
@@ -3431,19 +3431,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="E42">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="F42">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s">
         <v>152</v>
@@ -3452,31 +3452,31 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="J42">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="K42">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L42" t="s">
         <v>241</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N42">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="O42">
         <v>1</v>
       </c>
       <c r="P42">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q42" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3484,19 +3484,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="D43" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="E43">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F43">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G43" t="s">
         <v>153</v>
@@ -3505,31 +3505,31 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J43">
-        <v>185</v>
+        <v>228</v>
       </c>
       <c r="K43">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L43" t="s">
         <v>242</v>
       </c>
       <c r="M43">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="O43">
         <v>1</v>
       </c>
       <c r="P43">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q43" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3537,19 +3537,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="E44">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="F44">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="G44" t="s">
         <v>154</v>
@@ -3558,13 +3558,13 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="J44">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="K44">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L44" t="s">
         <v>243</v>
@@ -3573,7 +3573,10 @@
         <v>4</v>
       </c>
       <c r="N44">
-        <v>2016</v>
+        <v>2012</v>
+      </c>
+      <c r="O44">
+        <v>2</v>
       </c>
       <c r="Q44" t="s">
         <v>309</v>
@@ -3584,19 +3587,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="E45">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="F45">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="G45" t="s">
         <v>155</v>
@@ -3605,13 +3608,13 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
+        <v>191</v>
+      </c>
+      <c r="J45">
         <v>195</v>
       </c>
-      <c r="J45">
-        <v>225</v>
-      </c>
       <c r="K45">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L45" t="s">
         <v>244</v>
@@ -3620,10 +3623,7 @@
         <v>4</v>
       </c>
       <c r="N45">
-        <v>2012</v>
-      </c>
-      <c r="O45">
-        <v>2</v>
+        <v>2016</v>
       </c>
       <c r="Q45" t="s">
         <v>310</v>
@@ -3634,13 +3634,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="E46">
         <v>15</v>
@@ -3681,13 +3681,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="D47" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="E47">
         <v>14</v>
@@ -3731,13 +3731,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="D48" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E48">
         <v>18</v>
@@ -3784,16 +3784,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D49" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="E49">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="F49">
         <v>73</v>
@@ -3831,16 +3831,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="E50">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="F50">
         <v>76</v>
@@ -3875,16 +3875,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="E51">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="F51">
         <v>76</v>
@@ -3919,13 +3919,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="D52" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="E52">
         <v>83</v>
@@ -3966,16 +3966,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="D53" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E53">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F53">
         <v>79</v>
@@ -4019,16 +4019,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="D54" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E54">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="F54">
         <v>77</v>
@@ -4066,13 +4066,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="D55" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="E55">
         <v>85</v>
@@ -4116,13 +4116,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="D56" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="E56">
         <v>77</v>
@@ -4160,19 +4160,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E57">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F57">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s">
         <v>167</v>
@@ -4181,28 +4181,22 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J57">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K57">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="L57" t="s">
         <v>256</v>
       </c>
       <c r="M57">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="N57">
-        <v>2017</v>
-      </c>
-      <c r="O57">
-        <v>4</v>
-      </c>
-      <c r="P57">
-        <v>131</v>
+        <v>2009</v>
       </c>
       <c r="Q57" t="s">
         <v>318</v>
@@ -4213,19 +4207,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="D58" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="E58">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F58">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="G58" t="s">
         <v>168</v>
@@ -4234,22 +4228,28 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J58">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K58">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="L58" t="s">
         <v>257</v>
       </c>
       <c r="M58">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="N58">
-        <v>2009</v>
+        <v>2017</v>
+      </c>
+      <c r="O58">
+        <v>4</v>
+      </c>
+      <c r="P58">
+        <v>131</v>
       </c>
       <c r="Q58" t="s">
         <v>319</v>
@@ -4260,19 +4260,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="D59" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="E59">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F59">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G59" t="s">
         <v>169</v>
@@ -4281,25 +4281,31 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="J59">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="K59">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L59" t="s">
         <v>258</v>
       </c>
       <c r="M59">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N59">
-        <v>2017</v>
+        <v>2013</v>
+      </c>
+      <c r="O59">
+        <v>4</v>
+      </c>
+      <c r="P59">
+        <v>129</v>
       </c>
       <c r="Q59" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -4307,19 +4313,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="D60" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="E60">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F60">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G60" t="s">
         <v>170</v>
@@ -4328,31 +4334,25 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J60">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="K60">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L60" t="s">
         <v>259</v>
       </c>
       <c r="M60">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N60">
-        <v>2013</v>
-      </c>
-      <c r="O60">
-        <v>4</v>
-      </c>
-      <c r="P60">
-        <v>129</v>
+        <v>2017</v>
       </c>
       <c r="Q60" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -4360,13 +4360,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="D61" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="E61">
         <v>95</v>
@@ -4413,16 +4413,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" t="s">
+        <v>93</v>
+      </c>
+      <c r="E62">
         <v>92</v>
-      </c>
-      <c r="D62" t="s">
-        <v>111</v>
-      </c>
-      <c r="E62">
-        <v>86</v>
       </c>
       <c r="F62">
         <v>66</v>
@@ -4449,7 +4449,7 @@
         <v>2018</v>
       </c>
       <c r="Q62" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -4457,49 +4457,49 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="D63" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E63">
+        <v>50</v>
+      </c>
+      <c r="F63">
         <v>74</v>
-      </c>
-      <c r="F63">
-        <v>68</v>
       </c>
       <c r="G63" t="s">
         <v>173</v>
       </c>
       <c r="I63" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="J63">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="K63">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L63" t="s">
         <v>262</v>
       </c>
       <c r="M63">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N63">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="O63">
         <v>3</v>
       </c>
       <c r="P63">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q63" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4507,49 +4507,49 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D64" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E64">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F64">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G64" t="s">
         <v>174</v>
       </c>
       <c r="I64" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="J64">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="K64">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L64" t="s">
         <v>263</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N64">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="O64">
         <v>3</v>
       </c>
       <c r="P64">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q64" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -4557,13 +4557,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="D65" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="E65">
         <v>30</v>
@@ -4610,13 +4610,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="D66" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E66">
         <v>24</v>
@@ -4663,19 +4663,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="D67" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="E67">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F67">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G67" t="s">
         <v>177</v>
@@ -4684,22 +4684,25 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J67">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="K67">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L67" t="s">
         <v>265</v>
       </c>
       <c r="M67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N67">
-        <v>2018</v>
+        <v>2016</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -4707,19 +4710,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="D68" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E68">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F68">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s">
         <v>178</v>
@@ -4728,25 +4731,22 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J68">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="K68">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L68" t="s">
         <v>266</v>
       </c>
       <c r="M68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N68">
-        <v>2016</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>281</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -4754,13 +4754,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="D69" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E69">
         <v>22</v>
@@ -4807,13 +4807,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D70" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E70">
         <v>35</v>
@@ -4857,16 +4857,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="D71" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E71">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F71">
         <v>75</v>
@@ -4907,31 +4907,31 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="D72" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E72">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F72">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G72" t="s">
         <v>182</v>
       </c>
       <c r="I72" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J72">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="K72">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L72" t="s">
         <v>270</v>
@@ -4942,14 +4942,8 @@
       <c r="N72">
         <v>2019</v>
       </c>
-      <c r="O72">
-        <v>2</v>
-      </c>
-      <c r="P72">
-        <v>45</v>
-      </c>
       <c r="Q72" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -4957,31 +4951,31 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="D73" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E73">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="F73">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G73" t="s">
         <v>183</v>
       </c>
       <c r="I73" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J73">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="K73">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L73" t="s">
         <v>271</v>
@@ -4992,8 +4986,14 @@
       <c r="N73">
         <v>2019</v>
       </c>
+      <c r="O73">
+        <v>2</v>
+      </c>
+      <c r="P73">
+        <v>45</v>
+      </c>
       <c r="Q73" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -5001,13 +5001,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="D74" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E74">
         <v>62</v>
@@ -5054,13 +5054,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="D75" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E75">
         <v>69</v>
@@ -5107,13 +5107,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="D76" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E76">
         <v>75</v>
@@ -5160,16 +5160,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="D77" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E77">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F77">
         <v>74</v>
@@ -5205,7 +5205,7 @@
         <v>118</v>
       </c>
       <c r="Q77" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -5213,49 +5213,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E78">
         <v>63</v>
       </c>
-      <c r="F78">
-        <v>72</v>
-      </c>
-      <c r="G78" t="s">
-        <v>188</v>
-      </c>
       <c r="I78" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J78">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K78">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L78" t="s">
         <v>276</v>
       </c>
       <c r="M78">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N78">
-        <v>2013</v>
-      </c>
-      <c r="O78">
-        <v>4</v>
-      </c>
-      <c r="P78">
-        <v>107</v>
+        <v>2019</v>
       </c>
       <c r="Q78" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -5263,37 +5251,49 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="D79" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E79">
-        <v>73</v>
+        <v>63</v>
+      </c>
+      <c r="F79">
+        <v>72</v>
+      </c>
+      <c r="G79" t="s">
+        <v>188</v>
       </c>
       <c r="I79" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J79">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K79">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L79" t="s">
         <v>277</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N79">
-        <v>2019</v>
+        <v>2013</v>
+      </c>
+      <c r="O79">
+        <v>4</v>
+      </c>
+      <c r="P79">
+        <v>107</v>
       </c>
       <c r="Q79" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -5301,10 +5301,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="D80" t="s">
         <v>111</v>
